--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE145F9-2609-43BE-8E1A-BB43DE259967}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB27C3-4C24-49D8-8561-4C0540280954}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,12 +136,6 @@
     <t>^ if set to zero, could set to other values for other meausrements if needed</t>
   </si>
   <si>
-    <t>Flexgrid PV scale</t>
-  </si>
-  <si>
-    <t>Loadrack scale</t>
-  </si>
-  <si>
     <t>Loadrack_P_A</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>connects to 6a/b/c</t>
+  </si>
+  <si>
+    <t>scale_flexgrid PV</t>
+  </si>
+  <si>
+    <t>scale_loadrack</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3">
         <v>150</v>
@@ -860,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3">
         <v>200</v>
@@ -880,19 +880,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -932,19 +932,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -958,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -984,19 +984,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1010,19 +1010,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FB27C3-4C24-49D8-8561-4C0540280954}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F759140E-5C91-4B08-8493-3BF14CD44E95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F759140E-5C91-4B08-8493-3BF14CD44E95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A988FFFB-0129-4CD9-9461-3AFAD8F836CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A988FFFB-0129-4CD9-9461-3AFAD8F836CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB93C26-7031-4070-8CCE-CFB62BD8D2A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="42">
   <si>
     <t>Register</t>
   </si>
@@ -843,16 +843,16 @@
         <v>40</v>
       </c>
       <c r="C11" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D11" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E11" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F11" s="13">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB93C26-7031-4070-8CCE-CFB62BD8D2A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E519412-DFF6-4727-A948-79F78B6D20EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="1" r:id="rId1"/>
@@ -843,16 +843,16 @@
         <v>40</v>
       </c>
       <c r="C11" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F11" s="13">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_33NF_bal_CIL.xlsx
@@ -216,7 +216,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,7 +225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -241,6 +241,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -252,35 +258,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -297,7 +303,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -305,40 +311,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -355,46 +361,46 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -403,13 +409,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -429,6 +435,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffb7b7b7"/>
@@ -635,17 +642,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -673,10 +680,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -924,12 +931,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1216,7 +1223,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1244,10 +1251,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1805,16 +1812,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
